--- a/Validation (RMSE)/MSE_validation_calculation.xlsx
+++ b/Validation (RMSE)/MSE_validation_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regin\Desktop\R\S2Scalibrationextremeheat\Validation (RMSE)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18CE5F2-F214-445B-B160-D55C7BADB651}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B9813-30D7-46AF-BC45-D92DBB882D37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10968" yWindow="756" windowWidth="10680" windowHeight="9648" xr2:uid="{29E80036-5DEC-426E-95A2-F305B4AB727F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>MSE_raw</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Total / no. of observations</t>
-  </si>
-  <si>
-    <t>No. of samples (take no. of time/years)</t>
   </si>
   <si>
     <t>MSE_cal_CCR</t>
@@ -54,10 +51,13 @@
     <t>MSE_cal_MVA</t>
   </si>
   <si>
-    <t>RMSE = Sqrt(total/no. of observations)</t>
+    <t>MEMBERS</t>
   </si>
   <si>
-    <t>MEMBERS</t>
+    <t>RMSE = Sqrt(total / no. of observations)</t>
+  </si>
+  <si>
+    <t>No. of samples (no. of time/years)</t>
   </si>
 </sst>
 </file>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8D7F5E-7AA5-4FFE-A752-DD848D370F52}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,19 +469,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,7 +932,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <v>24</v>

--- a/Validation (RMSE)/MSE_validation_calculation.xlsx
+++ b/Validation (RMSE)/MSE_validation_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regin\Desktop\R\S2Scalibrationextremeheat\Validation (RMSE)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B9813-30D7-46AF-BC45-D92DBB882D37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4861D-7407-440C-B551-3AE5B1CD1EA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10968" yWindow="756" windowWidth="10680" windowHeight="9648" xr2:uid="{29E80036-5DEC-426E-95A2-F305B4AB727F}"/>
   </bookViews>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8D7F5E-7AA5-4FFE-A752-DD848D370F52}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,16 +935,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -953,19 +953,19 @@
       </c>
       <c r="B29" s="2">
         <f>B27/B28</f>
-        <v>0.56766188333333323</v>
+        <v>13.623885199999997</v>
       </c>
       <c r="C29" s="1">
         <f>C27/C28</f>
-        <v>0.26788185833333328</v>
+        <v>6.4291645999999991</v>
       </c>
       <c r="D29">
         <f>D27/D28</f>
-        <v>0.28724086250000003</v>
+        <v>6.8937807000000006</v>
       </c>
       <c r="E29" s="1">
         <f>E27/E28</f>
-        <v>0.25215952916666667</v>
+        <v>6.0518286999999997</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,19 +974,19 @@
       </c>
       <c r="B30" s="5">
         <f>SQRT(B29)</f>
-        <v>0.75343339674674181</v>
+        <v>3.6910547544028653</v>
       </c>
       <c r="C30" s="5">
         <f>SQRT(C29)</f>
-        <v>0.51757304637445456</v>
+        <v>2.5355797364705372</v>
       </c>
       <c r="D30" s="6">
         <f>SQRT(D29)</f>
-        <v>0.53594856329688956</v>
+        <v>2.6256010169102235</v>
       </c>
       <c r="E30" s="5">
         <f>SQRT(E29)</f>
-        <v>0.50215488563456856</v>
+        <v>2.4600464833006712</v>
       </c>
     </row>
   </sheetData>

--- a/Validation (RMSE)/MSE_validation_calculation.xlsx
+++ b/Validation (RMSE)/MSE_validation_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regin\Desktop\R\S2Scalibrationextremeheat\Validation (RMSE)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4861D-7407-440C-B551-3AE5B1CD1EA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFD336-1112-4536-BC7F-B2B61BD48BD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10968" yWindow="756" windowWidth="10680" windowHeight="9648" xr2:uid="{29E80036-5DEC-426E-95A2-F305B4AB727F}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Validation (RMSE)/MSE_validation_calculation.xlsx
+++ b/Validation (RMSE)/MSE_validation_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regin\Desktop\R\S2Scalibrationextremeheat\Validation (RMSE)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFD336-1112-4536-BC7F-B2B61BD48BD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD089337-1AE9-4698-A681-F20E7344E265}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10968" yWindow="756" windowWidth="10680" windowHeight="9648" xr2:uid="{29E80036-5DEC-426E-95A2-F305B4AB727F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>MSE_raw</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>No. of samples (no. of time/years)</t>
+  </si>
+  <si>
+    <t>RMSE_RAW</t>
+  </si>
+  <si>
+    <t>RMSE_CAL_CCR</t>
+  </si>
+  <si>
+    <t>RMSE_CAL_LR</t>
+  </si>
+  <si>
+    <t>RMSE_CAL_MVA</t>
   </si>
 </sst>
 </file>
@@ -120,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +150,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,19 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8D7F5E-7AA5-4FFE-A752-DD848D370F52}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -921,7 +941,7 @@
         <f>SUM(C2:C26)</f>
         <v>6.4291645999999991</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <f>SUM(D2:D26)</f>
         <v>6.8937807000000006</v>
       </c>
@@ -959,7 +979,7 @@
         <f>C27/C28</f>
         <v>6.4291645999999991</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <f>D27/D28</f>
         <v>6.8937807000000006</v>
       </c>
@@ -987,6 +1007,448 @@
       <c r="E30" s="5">
         <f>SQRT(E29)</f>
         <v>2.4600464833006712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.73476980000000003</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.4970485</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.5190534</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.4824117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.7526275</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.51952169999999998</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.53700610000000004</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.50652240000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0.7152579</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.49426009999999998</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.51167379999999996</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.47941669999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>4</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.71113919999999997</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.48114689999999999</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.4992702</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.46514270000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>5</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.74548000000000003</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.51528269999999998</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.53381049999999997</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.49999739999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>6</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.74140320000000004</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.51270660000000001</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.52345160000000002</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.50049909999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.73507149999999999</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.49423050000000002</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.51156020000000002</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.48012070000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>8</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.70176879999999997</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.46911310000000001</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.4914946</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0.45376549999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>9</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0.75409899999999996</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.51563939999999997</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.52600250000000004</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.49896689999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>10</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.71764899999999998</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.49520799999999998</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.51211609999999996</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.47961819999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>11</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0.74474459999999998</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.51873159999999996</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.53065030000000002</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.50257640000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>12</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.76965839999999996</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.53637389999999996</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.5513555</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.51949140000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>13</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.72724800000000001</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.4900447</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.50772799999999996</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.47661789999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>14</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.75109720000000002</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.52563439999999995</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.55035179999999995</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.50800900000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>15</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0.73663979999999996</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.493589</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0.52178749999999996</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.47734120000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>16</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.7490059</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.53042489999999998</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0.54643790000000003</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.51359520000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>17</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.7516796</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.52019179999999998</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.52854069999999997</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.50636550000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>18</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.6926426</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.45211210000000002</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.47002250000000001</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.43793310000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>19</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.74046630000000002</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.50853559999999998</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.5181019</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.49526930000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>20</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.73518170000000005</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.50321470000000001</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.53124269999999996</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.48674200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>21</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.74627509999999997</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.51562439999999998</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.53208650000000002</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.50062680000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>22</v>
+      </c>
+      <c r="B54" s="8">
+        <v>0.74020580000000002</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.51083679999999998</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0.53239539999999996</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.49691049999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>23</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0.74621040000000005</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.50549880000000003</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0.53543940000000001</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.49225180000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>24</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.77024320000000002</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.53563950000000005</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.55103579999999996</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.52087000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>25</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.73900330000000003</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.52752580000000004</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0.54663949999999994</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.5094457</v>
       </c>
     </row>
   </sheetData>

--- a/Validation (RMSE)/MSE_validation_calculation.xlsx
+++ b/Validation (RMSE)/MSE_validation_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regin\Desktop\R\S2Scalibrationextremeheat\Validation (RMSE)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD089337-1AE9-4698-A681-F20E7344E265}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47FC614-1E58-4012-AD43-267B62105F04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10968" yWindow="756" windowWidth="10680" windowHeight="9648" xr2:uid="{29E80036-5DEC-426E-95A2-F305B4AB727F}"/>
   </bookViews>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8D7F5E-7AA5-4FFE-A752-DD848D370F52}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
